--- a/Manual case.xlsx
+++ b/Manual case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leo- Personal\interview\Youv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leo- Personal\interview\Cypress-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A352B0FF-61EF-4472-B751-B4FF8C4EB73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B290B5D-B11D-4D4D-80ED-300C52A1BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2706A14-D9CB-4F85-96B5-9409114813CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>S.No.</t>
   </si>
@@ -224,6 +224,25 @@
   </si>
   <si>
     <t xml:space="preserve">A response news should be displayed in the channel and user has option to respond in "Type a message" text box
+</t>
+  </si>
+  <si>
+    <t>User has option of text box enabled</t>
+  </si>
+  <si>
+    <t>Enter "Nice" in the text box and click on "Send"</t>
+  </si>
+  <si>
+    <t>User is able to Enter and click on Send</t>
+  </si>
+  <si>
+    <t>Select option "Defintely"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A response news should be displayed in the channel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to get a response for the news asked for
 </t>
   </si>
 </sst>
@@ -695,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26902FB-D7A8-4CC2-B77B-1A61C4438BC9}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,31 +1057,49 @@
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
